--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Artn</t>
   </si>
   <si>
     <t>Gfra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,40 +543,40 @@
         <v>2.210625</v>
       </c>
       <c r="I2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>15.933008</v>
+        <v>0.03998533333333333</v>
       </c>
       <c r="N2">
-        <v>47.799024</v>
+        <v>0.119956</v>
       </c>
       <c r="O2">
-        <v>0.7524552897049799</v>
+        <v>0.001814551768531471</v>
       </c>
       <c r="P2">
-        <v>0.7524552897049799</v>
+        <v>0.00181455176853147</v>
       </c>
       <c r="Q2">
-        <v>11.74063527</v>
+        <v>0.0294641925</v>
       </c>
       <c r="R2">
-        <v>105.66571743</v>
+        <v>0.2651777325</v>
       </c>
       <c r="S2">
-        <v>0.5704191649462966</v>
+        <v>0.001075018673648341</v>
       </c>
       <c r="T2">
-        <v>0.5704191649462966</v>
+        <v>0.001075018673648341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,10 +605,10 @@
         <v>2.210625</v>
       </c>
       <c r="I3">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J3">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,42 +617,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.241682666666667</v>
+        <v>15.933008</v>
       </c>
       <c r="N3">
-        <v>15.725048</v>
+        <v>47.799024</v>
       </c>
       <c r="O3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="P3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="Q3">
-        <v>3.862464915</v>
+        <v>11.74063527</v>
       </c>
       <c r="R3">
-        <v>34.762184235</v>
+        <v>105.66571743</v>
       </c>
       <c r="S3">
-        <v>0.1876579896045666</v>
+        <v>0.4283640950195505</v>
       </c>
       <c r="T3">
-        <v>0.1876579896045666</v>
+        <v>0.4283640950195505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -655,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2351566666666667</v>
+        <v>0.7368749999999999</v>
       </c>
       <c r="H4">
-        <v>0.70547</v>
+        <v>2.210625</v>
       </c>
       <c r="I4">
-        <v>0.2419228454491366</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J4">
-        <v>0.2419228454491366</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.933008</v>
+        <v>6.062935333333333</v>
       </c>
       <c r="N4">
-        <v>47.799024</v>
+        <v>18.188806</v>
       </c>
       <c r="O4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="P4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="Q4">
-        <v>3.746753051253334</v>
+        <v>4.467625473749999</v>
       </c>
       <c r="R4">
-        <v>33.72077746128</v>
+        <v>40.20862926375</v>
       </c>
       <c r="S4">
-        <v>0.1820361247586832</v>
+        <v>0.1630039856394593</v>
       </c>
       <c r="T4">
-        <v>0.1820361247586832</v>
+        <v>0.1630039856394593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -717,46 +723,356 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2351566666666667</v>
+        <v>0.3936963333333334</v>
       </c>
       <c r="H5">
-        <v>0.70547</v>
+        <v>1.181089</v>
       </c>
       <c r="I5">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="J5">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03998533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.119956</v>
+      </c>
+      <c r="O5">
+        <v>0.001814551768531471</v>
+      </c>
+      <c r="P5">
+        <v>0.00181455176853147</v>
+      </c>
+      <c r="Q5">
+        <v>0.01574207912044445</v>
+      </c>
+      <c r="R5">
+        <v>0.141678712084</v>
+      </c>
+      <c r="S5">
+        <v>0.0005743591655032604</v>
+      </c>
+      <c r="T5">
+        <v>0.0005743591655032604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3936963333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.181089</v>
+      </c>
+      <c r="I6">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="J6">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.241682666666667</v>
-      </c>
-      <c r="N5">
-        <v>15.725048</v>
-      </c>
-      <c r="O5">
-        <v>0.2475447102950201</v>
-      </c>
-      <c r="P5">
-        <v>0.2475447102950201</v>
-      </c>
-      <c r="Q5">
-        <v>1.232616623617778</v>
-      </c>
-      <c r="R5">
-        <v>11.09354961256</v>
-      </c>
-      <c r="S5">
-        <v>0.05988672069045345</v>
-      </c>
-      <c r="T5">
-        <v>0.05988672069045345</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.933008</v>
+      </c>
+      <c r="N6">
+        <v>47.799024</v>
+      </c>
+      <c r="O6">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="P6">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="Q6">
+        <v>6.272766828570668</v>
+      </c>
+      <c r="R6">
+        <v>56.454901457136</v>
+      </c>
+      <c r="S6">
+        <v>0.2288656468747734</v>
+      </c>
+      <c r="T6">
+        <v>0.2288656468747734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3936963333333334</v>
+      </c>
+      <c r="H7">
+        <v>1.181089</v>
+      </c>
+      <c r="I7">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="J7">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.062935333333333</v>
+      </c>
+      <c r="N7">
+        <v>18.188806</v>
+      </c>
+      <c r="O7">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="P7">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="Q7">
+        <v>2.386955409970445</v>
+      </c>
+      <c r="R7">
+        <v>21.482598689734</v>
+      </c>
+      <c r="S7">
+        <v>0.08708949477859128</v>
+      </c>
+      <c r="T7">
+        <v>0.08708949477859128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.113219</v>
+      </c>
+      <c r="H8">
+        <v>0.339657</v>
+      </c>
+      <c r="I8">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J8">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03998533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.119956</v>
+      </c>
+      <c r="O8">
+        <v>0.001814551768531471</v>
+      </c>
+      <c r="P8">
+        <v>0.00181455176853147</v>
+      </c>
+      <c r="Q8">
+        <v>0.004527099454666666</v>
+      </c>
+      <c r="R8">
+        <v>0.04074389509199999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001651739293798697</v>
+      </c>
+      <c r="T8">
+        <v>0.0001651739293798697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.113219</v>
+      </c>
+      <c r="H9">
+        <v>0.339657</v>
+      </c>
+      <c r="I9">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J9">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.933008</v>
+      </c>
+      <c r="N9">
+        <v>47.799024</v>
+      </c>
+      <c r="O9">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="P9">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="Q9">
+        <v>1.803919232752</v>
+      </c>
+      <c r="R9">
+        <v>16.235273094768</v>
+      </c>
+      <c r="S9">
+        <v>0.06581707138119558</v>
+      </c>
+      <c r="T9">
+        <v>0.06581707138119558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.113219</v>
+      </c>
+      <c r="H10">
+        <v>0.339657</v>
+      </c>
+      <c r="I10">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J10">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.062935333333333</v>
+      </c>
+      <c r="N10">
+        <v>18.188806</v>
+      </c>
+      <c r="O10">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="P10">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="Q10">
+        <v>0.6864394755046667</v>
+      </c>
+      <c r="R10">
+        <v>6.177955279541999</v>
+      </c>
+      <c r="S10">
+        <v>0.02504515453789848</v>
+      </c>
+      <c r="T10">
+        <v>0.02504515453789848</v>
       </c>
     </row>
   </sheetData>
